--- a/nlqs/mock_nlidb_anp.nlqs.xlsx
+++ b/nlqs/mock_nlidb_anp.nlqs.xlsx
@@ -15,12 +15,12 @@
     <sheet name="mock_nlidb_anp.nlqs" sheetId="1" r:id="rId1"/>
     <sheet name="List" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="116">
   <si>
     <t>NLQ</t>
   </si>
@@ -64,33 +64,21 @@
     <t>How many fields are there in ParanÃ¡?</t>
   </si>
   <si>
-    <t>fields are there in ParanÃ¡?</t>
-  </si>
-  <si>
     <t>What was the maximum production of oil in the state of CearÃ¡ per field?</t>
   </si>
   <si>
-    <t>What was the production of oil in the state of CearÃ¡ field?</t>
-  </si>
-  <si>
     <t>SELECT field, max(oil_production) as max_oil_production FROM NLIDB_RESULT_SET GROUP BY field ORDER BY field</t>
   </si>
   <si>
     <t>What was the minimum gas production in the state of SÃ£o Paulo per basin?</t>
   </si>
   <si>
-    <t>What was the gas production in the state of SÃ£o Paulo basin?</t>
-  </si>
-  <si>
     <t>SELECT basin, min(gas_production) as min_gas_production FROM NLIDB_RESULT_SET GROUP BY basin ORDER BY basin</t>
   </si>
   <si>
     <t>What was the average monthly oil production by the operator PetrobrÃ¡s?</t>
   </si>
   <si>
-    <t>What was the month oil production by the operator PetrobrÃ¡s?</t>
-  </si>
-  <si>
     <t>What was the mean yearly gas production per field?</t>
   </si>
   <si>
@@ -262,12 +250,6 @@
     <t>SELECT year, oil_production FROM ANP WHERE lower(state) = "alagoas"</t>
   </si>
   <si>
-    <t>SELECT oil_production, field FROM ANP WHERE lower(state) = "cearÃ¡"</t>
-  </si>
-  <si>
-    <t>SELECT gas_production, basin FROM ANP WHERE lower(state) = "sÃ£o paulo"</t>
-  </si>
-  <si>
     <t>SELECT year, month, oil_production, operator FROM ANP WHERE lower(operator) = "petrobras"</t>
   </si>
   <si>
@@ -280,9 +262,6 @@
     <t>SELECT year, month, field, oil_production FROM ANP WHERE lower(state) = "rio de janeiro" and year = 2015</t>
   </si>
   <si>
-    <t>SELECT DISTINCT field FROM ANP WHERE lower(state) = "paranÃ¡"</t>
-  </si>
-  <si>
     <t>SELECT AVG(oil_production) AS avg_oil_production FROM (SELECT SUM(oil_production) AS oil_production FROM nlidb_result_set GROUP BY year, month)</t>
   </si>
   <si>
@@ -356,6 +335,39 @@
   </si>
   <si>
     <t>Q22</t>
+  </si>
+  <si>
+    <t>How many fields are there in Paraná?</t>
+  </si>
+  <si>
+    <t>fields are there in Paraná?</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT field FROM ANP WHERE lower(state) = "paraná"</t>
+  </si>
+  <si>
+    <t>What was the maximum production of oil in the state of Ceará per field?</t>
+  </si>
+  <si>
+    <t>What was the production of oil in the state of Ceará field?</t>
+  </si>
+  <si>
+    <t>SELECT oil_production, field FROM ANP WHERE lower(state) = "ceará"</t>
+  </si>
+  <si>
+    <t>What was the average monthly oil production by the operator Petrobrás?</t>
+  </si>
+  <si>
+    <t>What was the month oil production by the operator Petrobrás?</t>
+  </si>
+  <si>
+    <t>What was the minimum gas production in the state of São Paulo per basin?</t>
+  </si>
+  <si>
+    <t>What was the gas production in the state of São Paulo basin?</t>
+  </si>
+  <si>
+    <t>SELECT gas_production, basin FROM ANP WHERE lower(state) = "são paulo"</t>
   </si>
 </sst>
 </file>
@@ -1175,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E2:E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,7 +1225,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1231,7 +1243,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1249,7 +1261,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1261,88 +1273,88 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('fields are there in ParanÃ¡?', 'SELECT DISTINCT field FROM ANP WHERE lower(state) = "paranÃ¡"');</v>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('fields are there in Paraná?', 'SELECT DISTINCT field FROM ANP WHERE lower(state) = "paraná"');</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the production of oil in the state of CearÃ¡ field?', 'SELECT oil_production, field FROM ANP WHERE lower(state) = "cearÃ¡"');</v>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the production of oil in the state of Ceará field?', 'SELECT oil_production, field FROM ANP WHERE lower(state) = "ceará"');</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the gas production in the state of SÃ£o Paulo basin?', 'SELECT gas_production, basin FROM ANP WHERE lower(state) = "sÃ£o paulo"');</v>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the gas production in the state of São Paulo basin?', 'SELECT gas_production, basin FROM ANP WHERE lower(state) = "são paulo"');</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the month oil production by the operator PetrobrÃ¡s?', 'SELECT year, month, oil_production, operator FROM ANP WHERE lower(operator) = "petrobras"');</v>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the month oil production by the operator Petrobrás?', 'SELECT year, month, oil_production, operator FROM ANP WHERE lower(operator) = "petrobras"');</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -1351,16 +1363,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -1369,16 +1381,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -1387,16 +1399,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
@@ -1405,16 +1417,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -1423,16 +1435,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -1441,16 +1453,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
@@ -1459,16 +1471,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -1477,16 +1489,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
@@ -1495,16 +1507,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
@@ -1513,16 +1525,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -1531,16 +1543,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
@@ -1549,16 +1561,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
@@ -1567,16 +1579,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -1585,16 +1597,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E23" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;B23&amp;"', '"&amp;C23&amp;"');"</f>
@@ -1622,7 +1634,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1630,7 +1642,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1638,7 +1650,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1646,7 +1658,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1654,7 +1666,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1662,146 +1674,146 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/nlqs/mock_nlidb_anp.nlqs.xlsx
+++ b/nlqs/mock_nlidb_anp.nlqs.xlsx
@@ -262,9 +262,6 @@
     <t>SELECT year, month, field, oil_production FROM ANP WHERE lower(state) = "rio de janeiro" and year = 2015</t>
   </si>
   <si>
-    <t>SELECT AVG(oil_production) AS avg_oil_production FROM (SELECT SUM(oil_production) AS oil_production FROM nlidb_result_set GROUP BY year, month)</t>
-  </si>
-  <si>
     <t>SELECT operator, max(field) as max_field FROM (SELECT operator, count(DISTINCT field) as field FROM NLIDB_RESULT_SET GROUP BY operator)  ORDER BY operator</t>
   </si>
   <si>
@@ -368,6 +365,9 @@
   </si>
   <si>
     <t>SELECT gas_production, basin FROM ANP WHERE lower(state) = "são paulo"</t>
+  </si>
+  <si>
+    <t>select operator, avg(oil_production) as avg_oil_production from (select operator, sum(oil_production) as oil_production from nlidb_result_set group by operator, year, month) group by operator order by operator</t>
   </si>
 </sst>
 </file>
@@ -1187,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,13 +1273,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
         <v>105</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>106</v>
-      </c>
-      <c r="C5" t="s">
-        <v>107</v>
       </c>
       <c r="D5" t="s">
         <v>72</v>
@@ -1291,13 +1291,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
         <v>108</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>109</v>
-      </c>
-      <c r="C6" t="s">
-        <v>110</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -1309,13 +1309,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
         <v>113</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>114</v>
-      </c>
-      <c r="C7" t="s">
-        <v>115</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1327,16 +1327,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
         <v>111</v>
-      </c>
-      <c r="B8" t="s">
-        <v>112</v>
       </c>
       <c r="C8" t="s">
         <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -1606,7 +1606,7 @@
         <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;B23&amp;"', '"&amp;C23&amp;"');"</f>
@@ -1634,7 +1634,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
         <v>44</v>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
         <v>48</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
         <v>66</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
         <v>69</v>

--- a/nlqs/mock_nlidb_anp.nlqs.xlsx
+++ b/nlqs/mock_nlidb_anp.nlqs.xlsx
@@ -208,12 +208,6 @@
     <t>Which state of the federation has the gas production?</t>
   </si>
   <si>
-    <t>What was the average yearly production of oil per field and state in the year in 2015?</t>
-  </si>
-  <si>
-    <t>What was the year production of oil field and state in the year in 2015?</t>
-  </si>
-  <si>
     <t>SELECT year, oil_production, field, state FROM ANP WHERE year = 2015</t>
   </si>
   <si>
@@ -368,6 +362,12 @@
   </si>
   <si>
     <t>select operator, avg(oil_production) as avg_oil_production from (select operator, sum(oil_production) as oil_production from nlidb_result_set group by operator, year, month) group by operator order by operator</t>
+  </si>
+  <si>
+    <t>What was the average yearly production of oil per field and state in the year 2015?</t>
+  </si>
+  <si>
+    <t>What was the year production of oil field and state in the year 2015?</t>
   </si>
 </sst>
 </file>
@@ -1187,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1225,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1243,7 +1243,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1261,7 +1261,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1273,16 +1273,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
         <v>104</v>
       </c>
-      <c r="B5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" t="s">
-        <v>106</v>
-      </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -1291,13 +1291,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
         <v>107</v>
-      </c>
-      <c r="B6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" t="s">
-        <v>109</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -1309,13 +1309,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
         <v>112</v>
-      </c>
-      <c r="B7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" t="s">
-        <v>114</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1327,16 +1327,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -1423,7 +1423,7 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
@@ -1441,7 +1441,7 @@
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
         <v>39</v>
@@ -1561,34 +1561,34 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
         <v>62</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>63</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the year production of oil field and state in the year in 2015?', 'SELECT year, oil_production, field, state FROM ANP WHERE year = 2015');</v>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the year production of oil field and state in the year 2015?', 'SELECT year, oil_production, field, state FROM ANP WHERE year = 2015');</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
         <v>66</v>
-      </c>
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" t="s">
-        <v>68</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -1597,16 +1597,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
         <v>69</v>
       </c>
-      <c r="B23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E23" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;B23&amp;"', '"&amp;C23&amp;"');"</f>
@@ -1622,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:B23"/>
+    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,7 +1634,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
         <v>44</v>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
         <v>48</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
@@ -1794,26 +1794,26 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
